--- a/opencv_imgproc/opencv_findContours_freeman/ans.xlsx
+++ b/opencv_imgproc/opencv_findContours_freeman/ans.xlsx
@@ -14,9 +14,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="ans" localSheetId="0">Sheet1!$B$2:$J$361</definedName>
-  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,24 +23,37 @@
 </workbook>
 </file>
 
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="ans" type="6" refreshedVersion="5" background="1" saveData="1">
-    <textPr codePage="936" sourceFile="C:\Temp\ffjjj\otestnew\OpenCVTestNew\binlib\msvc\bin\opencv_findContours_freeman\ans.txt" tab="0" comma="1">
-      <textFields count="9">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-</connections>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>柱状图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -108,8 +118,22 @@
 </styleSheet>
 </file>
 
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ans" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B1:J361" totalsRowShown="0">
+  <autoFilter ref="B1:J361"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="0"/>
+    <tableColumn id="2" name="1"/>
+    <tableColumn id="3" name="2"/>
+    <tableColumn id="4" name="3"/>
+    <tableColumn id="5" name="4"/>
+    <tableColumn id="6" name="5"/>
+    <tableColumn id="7" name="6"/>
+    <tableColumn id="8" name="7"/>
+    <tableColumn id="9" name="柱状图"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -375,27 +399,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I361"/>
+  <dimension ref="B1:J361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="M77" sqref="M77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.875" customWidth="1"/>
     <col min="4" max="4" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.875" customWidth="1"/>
     <col min="6" max="6" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.875" customWidth="1"/>
     <col min="8" max="8" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.875" customWidth="1"/>
     <col min="10" max="10" width="37.125" customWidth="1"/>
     <col min="11" max="11" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2">
         <v>100</v>
       </c>
@@ -421,7 +474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3">
         <v>99</v>
       </c>
@@ -447,7 +500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>96</v>
       </c>
@@ -473,7 +526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>95</v>
       </c>
@@ -499,7 +552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>92</v>
       </c>
@@ -525,7 +578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>91</v>
       </c>
@@ -551,7 +604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>88</v>
       </c>
@@ -577,7 +630,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>88</v>
       </c>
@@ -603,7 +656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>85</v>
       </c>
@@ -629,7 +682,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11">
         <v>82</v>
       </c>
@@ -655,7 +708,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12">
         <v>82</v>
       </c>
@@ -681,7 +734,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13">
         <v>79</v>
       </c>
@@ -707,7 +760,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14">
         <v>77</v>
       </c>
@@ -733,7 +786,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15">
         <v>76</v>
       </c>
@@ -759,7 +812,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16">
         <v>73</v>
       </c>
@@ -9758,6 +9811,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
